--- a/server_monitor/deploy.xlsx
+++ b/server_monitor/deploy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="平台" sheetId="1" r:id="rId1"/>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
-  <si>
-    <t>tomcat端口</t>
-  </si>
-  <si>
-    <t>url</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
   <si>
     <t>redis</t>
   </si>
@@ -60,133 +51,137 @@
     <t>官网</t>
   </si>
   <si>
+    <t>统一登录</t>
+  </si>
+  <si>
+    <t>a.asean-go.com</t>
+  </si>
+  <si>
+    <t>用户中心</t>
+  </si>
+  <si>
+    <t>u.asean-go.com</t>
+  </si>
+  <si>
+    <t>边民app</t>
+  </si>
+  <si>
+    <t>c.asean-go.com</t>
+  </si>
+  <si>
+    <t>任务api</t>
+  </si>
+  <si>
+    <t>t.asean-go.com</t>
+  </si>
+  <si>
+    <t>数据展示</t>
+  </si>
+  <si>
+    <t>d.asean-go.com</t>
+  </si>
+  <si>
+    <t>供应商平台</t>
+  </si>
+  <si>
+    <t>b.asean-go.com</t>
+  </si>
+  <si>
+    <t>采购中心</t>
+  </si>
+  <si>
+    <t>e.asean-go.com</t>
+  </si>
+  <si>
+    <t>采购后台</t>
+  </si>
+  <si>
+    <t>m.asean-go.com</t>
+  </si>
+  <si>
+    <t>运营支撑</t>
+  </si>
+  <si>
+    <t>o.asean-go.com</t>
+  </si>
+  <si>
+    <t>系统管理</t>
+  </si>
+  <si>
+    <t>admin.asean-go.com</t>
+  </si>
+  <si>
+    <t>边民一体机</t>
+  </si>
+  <si>
+    <t>p.asean-go.com</t>
+  </si>
+  <si>
+    <t>Nginx</t>
+  </si>
+  <si>
+    <t>static.asean-go.com</t>
+  </si>
+  <si>
+    <t>commodity</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>order-trade</t>
+  </si>
+  <si>
+    <t>carriage</t>
+  </si>
+  <si>
+    <t>财务</t>
+  </si>
+  <si>
+    <t>任务PK</t>
+  </si>
+  <si>
+    <t>任务task</t>
+  </si>
+  <si>
+    <t>任务长连接</t>
+  </si>
+  <si>
+    <t>passport</t>
+  </si>
+  <si>
+    <t>perm</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>elastic search</t>
+  </si>
+  <si>
+    <t>oss-service</t>
+  </si>
+  <si>
+    <t>采购结算服务</t>
+  </si>
+  <si>
     <t>www.asean-go.com</t>
-  </si>
-  <si>
-    <t>统一登录</t>
-  </si>
-  <si>
-    <t>a.asean-go.com</t>
-  </si>
-  <si>
-    <t>用户中心</t>
-  </si>
-  <si>
-    <t>u.asean-go.com</t>
-  </si>
-  <si>
-    <t>边民app</t>
-  </si>
-  <si>
-    <t>c.asean-go.com</t>
-  </si>
-  <si>
-    <t>任务api</t>
-  </si>
-  <si>
-    <t>t.asean-go.com</t>
-  </si>
-  <si>
-    <t>数据展示</t>
-  </si>
-  <si>
-    <t>d.asean-go.com</t>
-  </si>
-  <si>
-    <t>供应商平台</t>
-  </si>
-  <si>
-    <t>b.asean-go.com</t>
-  </si>
-  <si>
-    <t>采购中心</t>
-  </si>
-  <si>
-    <t>e.asean-go.com</t>
-  </si>
-  <si>
-    <t>采购后台</t>
-  </si>
-  <si>
-    <t>m.asean-go.com</t>
-  </si>
-  <si>
-    <t>运营支撑</t>
-  </si>
-  <si>
-    <t>o.asean-go.com</t>
-  </si>
-  <si>
-    <t>系统管理</t>
-  </si>
-  <si>
-    <t>admin.asean-go.com</t>
-  </si>
-  <si>
-    <t>边民一体机</t>
-  </si>
-  <si>
-    <t>p.asean-go.com</t>
-  </si>
-  <si>
-    <t>Nginx</t>
-  </si>
-  <si>
-    <t>static.asean-go.com</t>
-  </si>
-  <si>
-    <t>thrifthuo端口</t>
-  </si>
-  <si>
-    <t>http端口</t>
-  </si>
-  <si>
-    <t>——</t>
-  </si>
-  <si>
-    <t>commodity</t>
-  </si>
-  <si>
-    <t>order</t>
-  </si>
-  <si>
-    <t>order-trade</t>
-  </si>
-  <si>
-    <t>carriage</t>
-  </si>
-  <si>
-    <t>财务</t>
-  </si>
-  <si>
-    <t>任务PK</t>
-  </si>
-  <si>
-    <t>任务task</t>
-  </si>
-  <si>
-    <t>任务长连接</t>
-  </si>
-  <si>
-    <t>passport</t>
-  </si>
-  <si>
-    <t>perm</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>elastic search</t>
-  </si>
-  <si>
-    <t>oss-service</t>
-  </si>
-  <si>
-    <t>采购结算服务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6400</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -210,7 +205,7 @@
       <name val="Helvetica"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,38 +214,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -343,6 +317,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
@@ -359,41 +374,41 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1584,247 +1599,309 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV20"/>
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="7" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="7" customWidth="1"/>
     <col min="4" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="8">
+        <v>3000</v>
+      </c>
+      <c r="C1" s="3"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="12"/>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B2" s="9">
+        <v>4500</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="B3" s="9">
+        <v>3181</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>3000</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
+      <c r="B4" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
-        <v>4500</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
+      <c r="B5" s="9">
+        <v>80</v>
+      </c>
+      <c r="C5" s="5"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="8">
-        <v>3181</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="10"/>
-    </row>
-    <row r="5" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="B6" s="9">
+        <v>9000</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="8">
-        <v>9999</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-    </row>
-    <row r="6" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="8">
-        <v>80</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="10"/>
-    </row>
-    <row r="7" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="9">
+        <v>8000</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="8">
-        <v>9000</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B8" s="9">
+        <v>8100</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="8">
-        <v>8000</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B9" s="9">
+        <v>8200</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="10"/>
-    </row>
-    <row r="9" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="8">
-        <v>8100</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B10" s="9">
+        <v>8300</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
+      <c r="D10" s="13"/>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="8">
-        <v>8200</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B11" s="9">
+        <v>8500</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="10"/>
-    </row>
-    <row r="11" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
+      <c r="D11" s="13"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="8">
-        <v>8300</v>
-      </c>
-      <c r="C11" s="9" t="s">
+      <c r="B12" s="9">
+        <v>8900</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="10"/>
-    </row>
-    <row r="12" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="8">
-        <v>8500</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="B13" s="9">
+        <v>8400</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
+      <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="8">
-        <v>8900</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B14" s="9">
+        <v>8600</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
+      <c r="D14" s="13"/>
+      <c r="E14" s="14">
+        <v>1</v>
+      </c>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="8">
-        <v>8400</v>
-      </c>
-      <c r="C14" s="9" t="s">
+      <c r="B15" s="9">
+        <v>8700</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="10"/>
-    </row>
-    <row r="15" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
+      <c r="D15" s="13">
+        <v>1</v>
+      </c>
+      <c r="E15" s="14">
+        <v>1</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="8">
-        <v>8600</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B16" s="9">
+        <v>8800</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D15" s="10"/>
-    </row>
-    <row r="16" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
+      <c r="D16" s="13"/>
+      <c r="E16" s="14">
+        <v>1</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="8">
-        <v>8700</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B17" s="9">
+        <v>8910</v>
+      </c>
+      <c r="C17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="10"/>
-    </row>
-    <row r="17" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7" t="s">
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="8">
-        <v>8800</v>
-      </c>
-      <c r="C17" s="9" t="s">
+      <c r="B18" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D17" s="10"/>
-    </row>
-    <row r="18" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7" t="s">
+      <c r="D18" s="13">
+        <v>1</v>
+      </c>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="8">
-        <v>8910</v>
-      </c>
-      <c r="C18" s="9" t="s">
+      <c r="B19" s="9">
+        <v>8080</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="10"/>
-    </row>
-    <row r="19" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="10"/>
-    </row>
-    <row r="20" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="8">
-        <v>8080</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="10"/>
+      <c r="D19" s="13">
+        <v>1</v>
+      </c>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1841,235 +1918,223 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV16"/>
+  <dimension ref="A1:IU15"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="12" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" style="6" customWidth="1"/>
+    <col min="2" max="4" width="16.33203125" style="7" customWidth="1"/>
+    <col min="5" max="255" width="16.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="3">
+        <v>9110</v>
+      </c>
+      <c r="C1" s="3">
+        <v>9101</v>
+      </c>
+      <c r="D1" s="8">
+        <v>9100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="5">
+        <v>7210</v>
+      </c>
+      <c r="C2" s="5">
+        <v>7201</v>
+      </c>
+      <c r="D2" s="9">
+        <v>7200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="5">
+        <v>7310</v>
+      </c>
+      <c r="C3" s="5">
+        <v>7301</v>
+      </c>
+      <c r="D3" s="9">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="5">
+        <v>7110</v>
+      </c>
+      <c r="C4" s="5">
+        <v>7101</v>
+      </c>
+      <c r="D4" s="9">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="B5" s="5">
+        <v>6110</v>
+      </c>
+      <c r="C5" s="5">
+        <v>6101</v>
+      </c>
+      <c r="D5" s="9">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="B6" s="5">
+        <v>5210</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5201</v>
+      </c>
+      <c r="D6" s="9">
+        <v>5200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
+      <c r="B7" s="5">
+        <v>8510</v>
+      </c>
+      <c r="C7" s="5">
+        <v>8501</v>
+      </c>
+      <c r="D7" s="9">
+        <v>8500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="5">
+        <v>4110</v>
+      </c>
+      <c r="C8" s="5">
+        <v>4101</v>
+      </c>
+      <c r="D8" s="9">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="5">
+        <v>4210</v>
+      </c>
+      <c r="C9" s="5">
+        <v>4201</v>
+      </c>
+      <c r="D9" s="9">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="5">
+        <v>9200</v>
+      </c>
+      <c r="C10" s="5">
+        <v>4201</v>
+      </c>
+      <c r="D10" s="9">
+        <v>9300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5">
+        <v>6401</v>
+      </c>
+      <c r="D11" s="9">
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B12" s="5">
+        <v>6510</v>
+      </c>
+      <c r="C12" s="5">
+        <v>6501</v>
+      </c>
+      <c r="D12" s="9">
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="4">
-        <v>9100</v>
-      </c>
-      <c r="C2" s="13">
-        <v>9110</v>
-      </c>
-      <c r="D2" s="13">
-        <v>9101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="8">
-        <v>7200</v>
-      </c>
-      <c r="C3" s="14">
-        <v>7210</v>
-      </c>
-      <c r="D3" s="14">
-        <v>7201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="B4" s="8">
-        <v>7300</v>
-      </c>
-      <c r="C4" s="14">
-        <v>7310</v>
-      </c>
-      <c r="D4" s="14">
-        <v>7301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="7" t="s">
+      <c r="B13" s="5">
+        <v>5111</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="8">
-        <v>7100</v>
-      </c>
-      <c r="C5" s="14">
-        <v>7110</v>
-      </c>
-      <c r="D5" s="14">
-        <v>7101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="7" t="s">
+      <c r="B14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="8">
-        <v>6100</v>
-      </c>
-      <c r="C6" s="14">
-        <v>6110</v>
-      </c>
-      <c r="D6" s="14">
-        <v>6101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="8">
-        <v>5200</v>
-      </c>
-      <c r="C7" s="14">
-        <v>5210</v>
-      </c>
-      <c r="D7" s="14">
-        <v>5201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="8">
-        <v>8500</v>
-      </c>
-      <c r="C8" s="14">
-        <v>8510</v>
-      </c>
-      <c r="D8" s="14">
-        <v>8501</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="8">
-        <v>0</v>
-      </c>
-      <c r="C9" s="14">
-        <v>5111</v>
-      </c>
-      <c r="D9" s="10"/>
-    </row>
-    <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="8">
-        <v>4100</v>
-      </c>
-      <c r="C10" s="14">
-        <v>4110</v>
-      </c>
-      <c r="D10" s="14">
-        <v>4101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="8">
-        <v>4200</v>
-      </c>
-      <c r="C11" s="14">
-        <v>4210</v>
-      </c>
-      <c r="D11" s="14">
+      <c r="C14" s="5">
         <v>4201</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="8">
+      <c r="D14" s="9">
         <v>9092</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="14">
+    </row>
+    <row r="15" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5">
         <v>4201</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13" s="8">
+      <c r="D15" s="9">
         <v>3181</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="14">
-        <v>4201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="8">
-        <v>9300</v>
-      </c>
-      <c r="C14" s="14">
-        <v>9200</v>
-      </c>
-      <c r="D14" s="14">
-        <v>4201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="8">
-        <v>6400</v>
-      </c>
-      <c r="C15" s="14">
-        <v>64064100</v>
-      </c>
-      <c r="D15" s="14">
-        <v>6401</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="8">
-        <v>6500</v>
-      </c>
-      <c r="C16" s="14">
-        <v>6510</v>
-      </c>
-      <c r="D16" s="14">
-        <v>6501</v>
       </c>
     </row>
   </sheetData>

--- a/server_monitor/deploy.xlsx
+++ b/server_monitor/deploy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540" activeTab="1"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="25520" windowHeight="15540"/>
   </bookViews>
   <sheets>
     <sheet name="平台" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="53">
   <si>
     <t>redis</t>
   </si>
@@ -154,9 +154,6 @@
   </si>
   <si>
     <t>kafka</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>elastic search</t>
@@ -172,15 +169,27 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>9401</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>9999</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>6400</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9401</t>
+    <t>3181</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>9999</t>
+    <t>3181</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4201</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +228,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -358,13 +367,39 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -395,20 +430,35 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1601,16 +1651,17 @@
   </sheetPr>
   <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12" style="7" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" style="7" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="7" customWidth="1"/>
-    <col min="4" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="6" style="19" customWidth="1"/>
+    <col min="7" max="256" width="16.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1620,10 +1671,10 @@
       <c r="B1" s="8">
         <v>3000</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="12"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
@@ -1632,10 +1683,10 @@
       <c r="B2" s="9">
         <v>4500</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
+      <c r="C2" s="17"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
@@ -1644,14 +1695,14 @@
       <c r="B3" s="9">
         <v>3181</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="13">
-        <v>1</v>
-      </c>
-      <c r="E3" s="14">
-        <v>1</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="C3" s="17"/>
+      <c r="D3" s="18">
+        <v>1</v>
+      </c>
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1660,14 +1711,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="14">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14">
+        <v>48</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1678,10 +1729,10 @@
       <c r="B5" s="9">
         <v>80</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
@@ -1690,12 +1741,12 @@
       <c r="B6" s="9">
         <v>9000</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
+      <c r="D6" s="18"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
@@ -1704,12 +1755,12 @@
       <c r="B7" s="9">
         <v>8000</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="18"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
@@ -1718,14 +1769,14 @@
       <c r="B8" s="9">
         <v>8100</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="13">
-        <v>1</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
@@ -1734,12 +1785,12 @@
       <c r="B9" s="9">
         <v>8200</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
@@ -1748,14 +1799,14 @@
       <c r="B10" s="9">
         <v>8300</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14">
-        <v>1</v>
-      </c>
-      <c r="F10" s="14"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="12">
+        <v>1</v>
+      </c>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
@@ -1764,12 +1815,12 @@
       <c r="B11" s="9">
         <v>8500</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
     </row>
     <row r="12" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
@@ -1778,12 +1829,12 @@
       <c r="B12" s="9">
         <v>8900</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
@@ -1792,16 +1843,16 @@
       <c r="B13" s="9">
         <v>8400</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="14">
-        <v>1</v>
-      </c>
-      <c r="F13" s="14"/>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1</v>
+      </c>
+      <c r="F13" s="12"/>
     </row>
     <row r="14" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
@@ -1810,14 +1861,14 @@
       <c r="B14" s="9">
         <v>8600</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D14" s="13"/>
-      <c r="E14" s="14">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="12">
+        <v>1</v>
+      </c>
+      <c r="F14" s="12"/>
     </row>
     <row r="15" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
@@ -1826,16 +1877,16 @@
       <c r="B15" s="9">
         <v>8700</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="13">
-        <v>1</v>
-      </c>
-      <c r="E15" s="14">
-        <v>1</v>
-      </c>
-      <c r="F15" s="14"/>
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="12">
+        <v>1</v>
+      </c>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="4" t="s">
@@ -1844,14 +1895,14 @@
       <c r="B16" s="9">
         <v>8800</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="13"/>
-      <c r="E16" s="14">
-        <v>1</v>
-      </c>
-      <c r="F16" s="14"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="12">
+        <v>1</v>
+      </c>
+      <c r="F16" s="12"/>
     </row>
     <row r="17" spans="1:6" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
@@ -1860,14 +1911,14 @@
       <c r="B17" s="9">
         <v>8910</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D17" s="13">
-        <v>1</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14">
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12">
         <v>1</v>
       </c>
     </row>
@@ -1876,16 +1927,16 @@
         <v>28</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="13">
-        <v>1</v>
-      </c>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
     </row>
     <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
@@ -1894,14 +1945,14 @@
       <c r="B19" s="9">
         <v>8080</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D19" s="13">
-        <v>1</v>
-      </c>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1920,18 +1971,19 @@
   </sheetPr>
   <dimension ref="A1:IU15"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" style="6" customWidth="1"/>
-    <col min="2" max="4" width="16.33203125" style="7" customWidth="1"/>
-    <col min="5" max="255" width="16.33203125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="6" style="7" customWidth="1"/>
+    <col min="5" max="7" width="6" style="13" customWidth="1"/>
+    <col min="8" max="255" width="16.33203125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" ht="20.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>32</v>
       </c>
@@ -1941,11 +1993,14 @@
       <c r="C1" s="3">
         <v>9101</v>
       </c>
-      <c r="D1" s="8">
+      <c r="D1" s="10">
         <v>9100</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>33</v>
       </c>
@@ -1955,11 +2010,16 @@
       <c r="C2" s="5">
         <v>7201</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="11">
         <v>7200</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E2" s="12">
+        <v>1</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>34</v>
       </c>
@@ -1969,11 +2029,18 @@
       <c r="C3" s="5">
         <v>7301</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="11">
         <v>7300</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E3" s="12">
+        <v>1</v>
+      </c>
+      <c r="F3" s="12">
+        <v>1</v>
+      </c>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>35</v>
       </c>
@@ -1983,11 +2050,16 @@
       <c r="C4" s="5">
         <v>7101</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="11">
         <v>7100</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+    </row>
+    <row r="5" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>36</v>
       </c>
@@ -1997,11 +2069,14 @@
       <c r="C5" s="5">
         <v>6101</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="11">
         <v>6100</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>37</v>
       </c>
@@ -2011,11 +2086,14 @@
       <c r="C6" s="5">
         <v>5201</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="11">
         <v>5200</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
         <v>38</v>
       </c>
@@ -2025,11 +2103,14 @@
       <c r="C7" s="5">
         <v>8501</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="11">
         <v>8500</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>40</v>
       </c>
@@ -2039,11 +2120,20 @@
       <c r="C8" s="5">
         <v>4101</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="11">
         <v>4100</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="12">
+        <v>1</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1</v>
+      </c>
+      <c r="G8" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
         <v>41</v>
       </c>
@@ -2053,13 +2143,18 @@
       <c r="C9" s="5">
         <v>4201</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="11">
         <v>4200</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E9" s="12"/>
+      <c r="F9" s="12">
+        <v>1</v>
+      </c>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5">
         <v>9200</v>
@@ -2067,27 +2162,35 @@
       <c r="C10" s="5">
         <v>4201</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="11">
         <v>9300</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C11" s="5">
         <v>6401</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="11">
         <v>6400</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5">
         <v>6510</v>
@@ -2095,11 +2198,14 @@
       <c r="C12" s="5">
         <v>6501</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="11">
         <v>6500</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="22.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="4" t="s">
         <v>39</v>
       </c>
@@ -2107,35 +2213,50 @@
         <v>5111</v>
       </c>
       <c r="C13" s="5"/>
-      <c r="D13" s="9">
+      <c r="D13" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E13" s="12"/>
+      <c r="F13" s="12">
+        <v>1</v>
+      </c>
+      <c r="G13" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>43</v>
+      <c r="B14" s="11">
+        <v>9092</v>
       </c>
       <c r="C14" s="5">
         <v>4201</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="11">
         <v>9092</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5">
-        <v>4201</v>
-      </c>
-      <c r="D15" s="9">
-        <v>3181</v>
-      </c>
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/server_monitor/deploy.xlsx
+++ b/server_monitor/deploy.xlsx
@@ -1652,7 +1652,7 @@
   <dimension ref="A1:IV19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
